--- a/data/PW002.xlsx
+++ b/data/PW002.xlsx
@@ -46,7 +46,7 @@
     <t>VerifyMsg</t>
   </si>
   <si>
-    <t>sudharsan.kg+347@saggezza.com</t>
+    <t>sudharsan.kg+372@saggezza.com</t>
   </si>
   <si>
     <t>sagezza123</t>

--- a/data/PW002.xlsx
+++ b/data/PW002.xlsx
@@ -46,16 +46,16 @@
     <t>VerifyMsg</t>
   </si>
   <si>
-    <t>sudharsan.kg+372@saggezza.com</t>
+    <t>sudharsan.kg+387@saggezza.com</t>
   </si>
   <si>
     <t>sagezza123</t>
   </si>
   <si>
-    <t>Muthu</t>
-  </si>
-  <si>
-    <t>raman</t>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Sus</t>
   </si>
   <si>
     <t>5427392892</t>
@@ -261,7 +261,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/data/PW002.xlsx
+++ b/data/PW002.xlsx
@@ -46,7 +46,7 @@
     <t>VerifyMsg</t>
   </si>
   <si>
-    <t>sudharsan.kg+387@saggezza.com</t>
+    <t>sudharsan.kg+389@saggezza.com</t>
   </si>
   <si>
     <t>sagezza123</t>
@@ -261,7 +261,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
